--- a/natmiOut/OldD7/LR-pairs_lrc2p/Fn1-Itgb7.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Fn1-Itgb7.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>16.412314546899</v>
+        <v>19.95578266666667</v>
       </c>
       <c r="H2">
-        <v>16.412314546899</v>
+        <v>59.867348</v>
       </c>
       <c r="I2">
-        <v>0.009751784795650554</v>
+        <v>0.0117373419656925</v>
       </c>
       <c r="J2">
-        <v>0.009751784795650554</v>
+        <v>0.0117373419656925</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.01744856036613</v>
+        <v>1.135193666666667</v>
       </c>
       <c r="N2">
-        <v>1.01744856036613</v>
+        <v>3.405581</v>
       </c>
       <c r="O2">
-        <v>0.1680098833586309</v>
+        <v>0.153770120695047</v>
       </c>
       <c r="P2">
-        <v>0.1680098833586309</v>
+        <v>0.153770120695047</v>
       </c>
       <c r="Q2">
-        <v>16.69868580801848</v>
+        <v>22.65367809657645</v>
       </c>
       <c r="R2">
-        <v>16.69868580801848</v>
+        <v>203.883102869188</v>
       </c>
       <c r="S2">
-        <v>0.00163839622605572</v>
+        <v>0.001804852490703575</v>
       </c>
       <c r="T2">
-        <v>0.00163839622605572</v>
+        <v>0.001804852490703575</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>16.412314546899</v>
+        <v>19.95578266666667</v>
       </c>
       <c r="H3">
-        <v>16.412314546899</v>
+        <v>59.867348</v>
       </c>
       <c r="I3">
-        <v>0.009751784795650554</v>
+        <v>0.0117373419656925</v>
       </c>
       <c r="J3">
-        <v>0.009751784795650554</v>
+        <v>0.0117373419656925</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.2650914411149</v>
+        <v>2.287366</v>
       </c>
       <c r="N3">
-        <v>2.2650914411149</v>
+        <v>6.862098</v>
       </c>
       <c r="O3">
-        <v>0.3740314386816798</v>
+        <v>0.3098401235152652</v>
       </c>
       <c r="P3">
-        <v>0.3740314386816798</v>
+        <v>0.3098401235152652</v>
       </c>
       <c r="Q3">
-        <v>37.1753932090665</v>
+        <v>45.64617877512267</v>
       </c>
       <c r="R3">
-        <v>37.1753932090665</v>
+        <v>410.815608976104</v>
       </c>
       <c r="S3">
-        <v>0.003647474096831308</v>
+        <v>0.003636699484391069</v>
       </c>
       <c r="T3">
-        <v>0.003647474096831308</v>
+        <v>0.003636699484391069</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>16.412314546899</v>
+        <v>19.95578266666667</v>
       </c>
       <c r="H4">
-        <v>16.412314546899</v>
+        <v>59.867348</v>
       </c>
       <c r="I4">
-        <v>0.009751784795650554</v>
+        <v>0.0117373419656925</v>
       </c>
       <c r="J4">
-        <v>0.009751784795650554</v>
+        <v>0.0117373419656925</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.07345425360781</v>
+        <v>3.138589666666667</v>
       </c>
       <c r="N4">
-        <v>2.07345425360781</v>
+        <v>9.415769000000001</v>
       </c>
       <c r="O4">
-        <v>0.3423866531127109</v>
+        <v>0.425144471843918</v>
       </c>
       <c r="P4">
-        <v>0.3423866531127109</v>
+        <v>0.425144471843918</v>
       </c>
       <c r="Q4">
-        <v>34.03018340881707</v>
+        <v>62.63301326784578</v>
       </c>
       <c r="R4">
-        <v>34.03018340881707</v>
+        <v>563.697119410612</v>
       </c>
       <c r="S4">
-        <v>0.003338880958058215</v>
+        <v>0.004990066050855791</v>
       </c>
       <c r="T4">
-        <v>0.003338880958058215</v>
+        <v>0.004990066050855791</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>16.412314546899</v>
+        <v>19.95578266666667</v>
       </c>
       <c r="H5">
-        <v>16.412314546899</v>
+        <v>59.867348</v>
       </c>
       <c r="I5">
-        <v>0.009751784795650554</v>
+        <v>0.0117373419656925</v>
       </c>
       <c r="J5">
-        <v>0.009751784795650554</v>
+        <v>0.0117373419656925</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.699890910870726</v>
+        <v>0.8212579999999999</v>
       </c>
       <c r="N5">
-        <v>0.699890910870726</v>
+        <v>2.463774</v>
       </c>
       <c r="O5">
-        <v>0.1155720248469782</v>
+        <v>0.1112452839457698</v>
       </c>
       <c r="P5">
-        <v>0.1155720248469782</v>
+        <v>0.1112452839457698</v>
       </c>
       <c r="Q5">
-        <v>11.48682977772601</v>
+        <v>16.38884616126133</v>
       </c>
       <c r="R5">
-        <v>11.48682977772601</v>
+        <v>147.499615451352</v>
       </c>
       <c r="S5">
-        <v>0.00112703351470531</v>
+        <v>0.001305723939742062</v>
       </c>
       <c r="T5">
-        <v>0.00112703351470531</v>
+        <v>0.001305723939742062</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1628.01314247892</v>
+        <v>1637.343343333333</v>
       </c>
       <c r="H6">
-        <v>1628.01314247892</v>
+        <v>4912.03003</v>
       </c>
       <c r="I6">
-        <v>0.9673244906791579</v>
+        <v>0.9630320723052701</v>
       </c>
       <c r="J6">
-        <v>0.9673244906791579</v>
+        <v>0.9630320723052702</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.01744856036613</v>
+        <v>1.135193666666667</v>
       </c>
       <c r="N6">
-        <v>1.01744856036613</v>
+        <v>3.405581</v>
       </c>
       <c r="O6">
-        <v>0.1680098833586309</v>
+        <v>0.153770120695047</v>
       </c>
       <c r="P6">
-        <v>0.1680098833586309</v>
+        <v>0.153770120695047</v>
       </c>
       <c r="Q6">
-        <v>1656.419628072317</v>
+        <v>1858.701793510825</v>
       </c>
       <c r="R6">
-        <v>1656.419628072317</v>
+        <v>16728.31614159743</v>
       </c>
       <c r="S6">
-        <v>0.1625200748489524</v>
+        <v>0.1480855579915826</v>
       </c>
       <c r="T6">
-        <v>0.1625200748489524</v>
+        <v>0.1480855579915826</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1628.01314247892</v>
+        <v>1637.343343333333</v>
       </c>
       <c r="H7">
-        <v>1628.01314247892</v>
+        <v>4912.03003</v>
       </c>
       <c r="I7">
-        <v>0.9673244906791579</v>
+        <v>0.9630320723052701</v>
       </c>
       <c r="J7">
-        <v>0.9673244906791579</v>
+        <v>0.9630320723052702</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.2650914411149</v>
+        <v>2.287366</v>
       </c>
       <c r="N7">
-        <v>2.2650914411149</v>
+        <v>6.862098</v>
       </c>
       <c r="O7">
-        <v>0.3740314386816798</v>
+        <v>0.3098401235152652</v>
       </c>
       <c r="P7">
-        <v>0.3740314386816798</v>
+        <v>0.3098401235152652</v>
       </c>
       <c r="Q7">
-        <v>3687.598635051574</v>
+        <v>3745.203493866993</v>
       </c>
       <c r="R7">
-        <v>3687.598635051574</v>
+        <v>33706.83144480293</v>
       </c>
       <c r="S7">
-        <v>0.3618097709207486</v>
+        <v>0.2983859762322267</v>
       </c>
       <c r="T7">
-        <v>0.3618097709207486</v>
+        <v>0.2983859762322268</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1628.01314247892</v>
+        <v>1637.343343333333</v>
       </c>
       <c r="H8">
-        <v>1628.01314247892</v>
+        <v>4912.03003</v>
       </c>
       <c r="I8">
-        <v>0.9673244906791579</v>
+        <v>0.9630320723052701</v>
       </c>
       <c r="J8">
-        <v>0.9673244906791579</v>
+        <v>0.9630320723052702</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.07345425360781</v>
+        <v>3.138589666666667</v>
       </c>
       <c r="N8">
-        <v>2.07345425360781</v>
+        <v>9.415769000000001</v>
       </c>
       <c r="O8">
-        <v>0.3423866531127109</v>
+        <v>0.425144471843918</v>
       </c>
       <c r="P8">
-        <v>0.3423866531127109</v>
+        <v>0.425144471843918</v>
       </c>
       <c r="Q8">
-        <v>3375.610775202334</v>
+        <v>5138.948898171452</v>
       </c>
       <c r="R8">
-        <v>3375.610775202334</v>
+        <v>46250.54008354307</v>
       </c>
       <c r="S8">
-        <v>0.3311989948375946</v>
+        <v>0.4094277617489779</v>
       </c>
       <c r="T8">
-        <v>0.3311989948375946</v>
+        <v>0.409427761748978</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1628.01314247892</v>
+        <v>1637.343343333333</v>
       </c>
       <c r="H9">
-        <v>1628.01314247892</v>
+        <v>4912.03003</v>
       </c>
       <c r="I9">
-        <v>0.9673244906791579</v>
+        <v>0.9630320723052701</v>
       </c>
       <c r="J9">
-        <v>0.9673244906791579</v>
+        <v>0.9630320723052702</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.699890910870726</v>
+        <v>0.8212579999999999</v>
       </c>
       <c r="N9">
-        <v>0.699890910870726</v>
+        <v>2.463774</v>
       </c>
       <c r="O9">
-        <v>0.1155720248469782</v>
+        <v>0.1112452839457698</v>
       </c>
       <c r="P9">
-        <v>0.1155720248469782</v>
+        <v>0.1112452839457698</v>
       </c>
       <c r="Q9">
-        <v>1139.431601199084</v>
+        <v>1344.681319459246</v>
       </c>
       <c r="R9">
-        <v>1139.431601199084</v>
+        <v>12102.13187513322</v>
       </c>
       <c r="S9">
-        <v>0.1117956500718622</v>
+        <v>0.1071327763324829</v>
       </c>
       <c r="T9">
-        <v>0.1117956500718622</v>
+        <v>0.1071327763324829</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>13.2701060874532</v>
+        <v>17.50081933333334</v>
       </c>
       <c r="H10">
-        <v>13.2701060874532</v>
+        <v>52.502458</v>
       </c>
       <c r="I10">
-        <v>0.007884763505507309</v>
+        <v>0.01029341242216722</v>
       </c>
       <c r="J10">
-        <v>0.007884763505507309</v>
+        <v>0.01029341242216722</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.01744856036613</v>
+        <v>1.135193666666667</v>
       </c>
       <c r="N10">
-        <v>1.01744856036613</v>
+        <v>3.405581</v>
       </c>
       <c r="O10">
-        <v>0.1680098833586309</v>
+        <v>0.153770120695047</v>
       </c>
       <c r="P10">
-        <v>0.1680098833586309</v>
+        <v>0.153770120695047</v>
       </c>
       <c r="Q10">
-        <v>13.50165033458508</v>
+        <v>19.86681926867756</v>
       </c>
       <c r="R10">
-        <v>13.50165033458508</v>
+        <v>178.801373418098</v>
       </c>
       <c r="S10">
-        <v>0.001324718196870673</v>
+        <v>0.001582819270520549</v>
       </c>
       <c r="T10">
-        <v>0.001324718196870673</v>
+        <v>0.001582819270520549</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>13.2701060874532</v>
+        <v>17.50081933333334</v>
       </c>
       <c r="H11">
-        <v>13.2701060874532</v>
+        <v>52.502458</v>
       </c>
       <c r="I11">
-        <v>0.007884763505507309</v>
+        <v>0.01029341242216722</v>
       </c>
       <c r="J11">
-        <v>0.007884763505507309</v>
+        <v>0.01029341242216722</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.2650914411149</v>
+        <v>2.287366</v>
       </c>
       <c r="N11">
-        <v>2.2650914411149</v>
+        <v>6.862098</v>
       </c>
       <c r="O11">
-        <v>0.3740314386816798</v>
+        <v>0.3098401235152652</v>
       </c>
       <c r="P11">
-        <v>0.3740314386816798</v>
+        <v>0.3098401235152652</v>
       </c>
       <c r="Q11">
-        <v>30.05800372137698</v>
+        <v>40.03077911520934</v>
       </c>
       <c r="R11">
-        <v>30.05800372137698</v>
+        <v>360.277012036884</v>
       </c>
       <c r="S11">
-        <v>0.002949149437629704</v>
+        <v>0.003189312176277856</v>
       </c>
       <c r="T11">
-        <v>0.002949149437629704</v>
+        <v>0.003189312176277857</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>13.2701060874532</v>
+        <v>17.50081933333334</v>
       </c>
       <c r="H12">
-        <v>13.2701060874532</v>
+        <v>52.502458</v>
       </c>
       <c r="I12">
-        <v>0.007884763505507309</v>
+        <v>0.01029341242216722</v>
       </c>
       <c r="J12">
-        <v>0.007884763505507309</v>
+        <v>0.01029341242216722</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.07345425360781</v>
+        <v>3.138589666666667</v>
       </c>
       <c r="N12">
-        <v>2.07345425360781</v>
+        <v>9.415769000000001</v>
       </c>
       <c r="O12">
-        <v>0.3423866531127109</v>
+        <v>0.425144471843918</v>
       </c>
       <c r="P12">
-        <v>0.3423866531127109</v>
+        <v>0.425144471843918</v>
       </c>
       <c r="Q12">
-        <v>27.51495791285673</v>
+        <v>54.92789071780023</v>
       </c>
       <c r="R12">
-        <v>27.51495791285673</v>
+        <v>494.3510164602021</v>
       </c>
       <c r="S12">
-        <v>0.002699637787235894</v>
+        <v>0.004376187387693906</v>
       </c>
       <c r="T12">
-        <v>0.002699637787235894</v>
+        <v>0.004376187387693907</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>13.2701060874532</v>
+        <v>17.50081933333334</v>
       </c>
       <c r="H13">
-        <v>13.2701060874532</v>
+        <v>52.502458</v>
       </c>
       <c r="I13">
-        <v>0.007884763505507309</v>
+        <v>0.01029341242216722</v>
       </c>
       <c r="J13">
-        <v>0.007884763505507309</v>
+        <v>0.01029341242216722</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.699890910870726</v>
+        <v>0.8212579999999999</v>
       </c>
       <c r="N13">
-        <v>0.699890910870726</v>
+        <v>2.463774</v>
       </c>
       <c r="O13">
-        <v>0.1155720248469782</v>
+        <v>0.1112452839457698</v>
       </c>
       <c r="P13">
-        <v>0.1155720248469782</v>
+        <v>0.1112452839457698</v>
       </c>
       <c r="Q13">
-        <v>9.287626636898786</v>
+        <v>14.37268788405467</v>
       </c>
       <c r="R13">
-        <v>9.287626636898786</v>
+        <v>129.354190956492</v>
       </c>
       <c r="S13">
-        <v>0.0009112580837710379</v>
+        <v>0.001145093587674906</v>
       </c>
       <c r="T13">
-        <v>0.0009112580837710379</v>
+        <v>0.001145093587674907</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>25.3106650614045</v>
+        <v>25.39612333333333</v>
       </c>
       <c r="H14">
-        <v>25.3106650614045</v>
+        <v>76.18836999999999</v>
       </c>
       <c r="I14">
-        <v>0.01503896101968408</v>
+        <v>0.01493717330687017</v>
       </c>
       <c r="J14">
-        <v>0.01503896101968408</v>
+        <v>0.01493717330687017</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.01744856036613</v>
+        <v>1.135193666666667</v>
       </c>
       <c r="N14">
-        <v>1.01744856036613</v>
+        <v>3.405581</v>
       </c>
       <c r="O14">
-        <v>0.1680098833586309</v>
+        <v>0.153770120695047</v>
       </c>
       <c r="P14">
-        <v>0.1680098833586309</v>
+        <v>0.153770120695047</v>
       </c>
       <c r="Q14">
-        <v>25.75229972863531</v>
+        <v>28.82951836588555</v>
       </c>
       <c r="R14">
-        <v>25.75229972863531</v>
+        <v>259.46566529297</v>
       </c>
       <c r="S14">
-        <v>0.00252669408675212</v>
+        <v>0.00229689094224026</v>
       </c>
       <c r="T14">
-        <v>0.00252669408675212</v>
+        <v>0.00229689094224026</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>25.3106650614045</v>
+        <v>25.39612333333333</v>
       </c>
       <c r="H15">
-        <v>25.3106650614045</v>
+        <v>76.18836999999999</v>
       </c>
       <c r="I15">
-        <v>0.01503896101968408</v>
+        <v>0.01493717330687017</v>
       </c>
       <c r="J15">
-        <v>0.01503896101968408</v>
+        <v>0.01493717330687017</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.2650914411149</v>
+        <v>2.287366</v>
       </c>
       <c r="N15">
-        <v>2.2650914411149</v>
+        <v>6.862098</v>
       </c>
       <c r="O15">
-        <v>0.3740314386816798</v>
+        <v>0.3098401235152652</v>
       </c>
       <c r="P15">
-        <v>0.3740314386816798</v>
+        <v>0.3098401235152652</v>
       </c>
       <c r="Q15">
-        <v>57.33097079951327</v>
+        <v>58.09022904447333</v>
       </c>
       <c r="R15">
-        <v>57.33097079951327</v>
+        <v>522.8120614002599</v>
       </c>
       <c r="S15">
-        <v>0.00562504422647014</v>
+        <v>0.004628135622369575</v>
       </c>
       <c r="T15">
-        <v>0.00562504422647014</v>
+        <v>0.004628135622369575</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>25.3106650614045</v>
+        <v>25.39612333333333</v>
       </c>
       <c r="H16">
-        <v>25.3106650614045</v>
+        <v>76.18836999999999</v>
       </c>
       <c r="I16">
-        <v>0.01503896101968408</v>
+        <v>0.01493717330687017</v>
       </c>
       <c r="J16">
-        <v>0.01503896101968408</v>
+        <v>0.01493717330687017</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.07345425360781</v>
+        <v>3.138589666666667</v>
       </c>
       <c r="N16">
-        <v>2.07345425360781</v>
+        <v>9.415769000000001</v>
       </c>
       <c r="O16">
-        <v>0.3423866531127109</v>
+        <v>0.425144471843918</v>
       </c>
       <c r="P16">
-        <v>0.3423866531127109</v>
+        <v>0.425144471843918</v>
       </c>
       <c r="Q16">
-        <v>52.48050613321175</v>
+        <v>79.70801026739223</v>
       </c>
       <c r="R16">
-        <v>52.48050613321175</v>
+        <v>717.37209240653</v>
       </c>
       <c r="S16">
-        <v>0.005149139529822155</v>
+        <v>0.006350456656390387</v>
       </c>
       <c r="T16">
-        <v>0.005149139529822155</v>
+        <v>0.006350456656390388</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>25.3106650614045</v>
+        <v>25.39612333333333</v>
       </c>
       <c r="H17">
-        <v>25.3106650614045</v>
+        <v>76.18836999999999</v>
       </c>
       <c r="I17">
-        <v>0.01503896101968408</v>
+        <v>0.01493717330687017</v>
       </c>
       <c r="J17">
-        <v>0.01503896101968408</v>
+        <v>0.01493717330687017</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.699890910870726</v>
+        <v>0.8212579999999999</v>
       </c>
       <c r="N17">
-        <v>0.699890910870726</v>
+        <v>2.463774</v>
       </c>
       <c r="O17">
-        <v>0.1155720248469782</v>
+        <v>0.1112452839457698</v>
       </c>
       <c r="P17">
-        <v>0.1155720248469782</v>
+        <v>0.1112452839457698</v>
       </c>
       <c r="Q17">
-        <v>17.71470442457025</v>
+        <v>20.85676945648666</v>
       </c>
       <c r="R17">
-        <v>17.71470442457025</v>
+        <v>187.71092510838</v>
       </c>
       <c r="S17">
-        <v>0.001738083176639666</v>
+        <v>0.001661690085869945</v>
       </c>
       <c r="T17">
-        <v>0.001738083176639666</v>
+        <v>0.001661690085869945</v>
       </c>
     </row>
   </sheetData>
